--- a/docs/mcmc_expsections_modelsims.xlsx
+++ b/docs/mcmc_expsections_modelsims.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/marissa_fichera_pnnl_gov/Documents/Documents/forge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fich146\PycharmProjects\mcrasta\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="8_{57A58749-5DA3-4BE7-9F57-209566AD56A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58562531-BC29-405C-AF78-A9BE5A58547F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2752D927-FAAC-4103-BA36-F96F16D11A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="1710" windowWidth="29040" windowHeight="15840" xr2:uid="{FF76F7A0-9FE0-4CCF-A381-B6B0B9A03D3E}"/>
+    <workbookView xWindow="-57720" yWindow="1710" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF76F7A0-9FE0-4CCF-A381-B6B0B9A03D3E}"/>
   </bookViews>
   <sheets>
     <sheet name="MCMCsections" sheetId="1" r:id="rId1"/>
     <sheet name="RSF_regressionresults" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="99">
   <si>
     <t>Sample</t>
   </si>
@@ -335,171 +334,6 @@
   </si>
   <si>
     <t>89% CI</t>
-  </si>
-  <si>
-    <t>[-0.01555189  0.0078535 ]</t>
-  </si>
-  <si>
-    <t>[10.90223383 30.06486999]</t>
-  </si>
-  <si>
-    <t>[0.53605487 0.56090526]</t>
-  </si>
-  <si>
-    <t>[0.00099869 0.00979909]</t>
-  </si>
-  <si>
-    <t>[0.00069885 0.01870677]</t>
-  </si>
-  <si>
-    <t>[-0.01552749  0.00864086]</t>
-  </si>
-  <si>
-    <t>[11.11512606 30.18412196]</t>
-  </si>
-  <si>
-    <t>[0.53181548 0.55961864]</t>
-  </si>
-  <si>
-    <t>[0.00094757 0.01030635]</t>
-  </si>
-  <si>
-    <t>[0.000726   0.01855247]</t>
-  </si>
-  <si>
-    <t>[-0.00767334  0.00774622]</t>
-  </si>
-  <si>
-    <t>[11.12406412 29.22767928]</t>
-  </si>
-  <si>
-    <t>[0.5164802  0.56685953]</t>
-  </si>
-  <si>
-    <t>[0.00202745 0.01122125]</t>
-  </si>
-  <si>
-    <t>[0.00080896 0.0125487 ]</t>
-  </si>
-  <si>
-    <t>[-0.01504814  0.01018614]</t>
-  </si>
-  <si>
-    <t>[11.03773237 30.13793642]</t>
-  </si>
-  <si>
-    <t>[0.52608756 0.55781816]</t>
-  </si>
-  <si>
-    <t>[0.00090347 0.0116526 ]</t>
-  </si>
-  <si>
-    <t>[0.00072736 0.01840502]</t>
-  </si>
-  <si>
-    <t>[-0.01621463  0.01626584]</t>
-  </si>
-  <si>
-    <t>[11.12614562 30.27867199]</t>
-  </si>
-  <si>
-    <t>[0.35691714 0.45457291]</t>
-  </si>
-  <si>
-    <t>[0.00084787 0.01724477]</t>
-  </si>
-  <si>
-    <t>[0.00067639 0.01794581]</t>
-  </si>
-  <si>
-    <t>[-0.01691056  0.01709631]</t>
-  </si>
-  <si>
-    <t>[11.22748794 30.39680332]</t>
-  </si>
-  <si>
-    <t>[0.32057233 0.47170245]</t>
-  </si>
-  <si>
-    <t>[0.00075863 0.01802957]</t>
-  </si>
-  <si>
-    <t>[0.00069489 0.01806413]</t>
-  </si>
-  <si>
-    <t>[-0.01169809  0.01067874]</t>
-  </si>
-  <si>
-    <t>[11.14289385 30.32124195]</t>
-  </si>
-  <si>
-    <t>[0.38565766 0.45332136]</t>
-  </si>
-  <si>
-    <t>[0.00118383 0.01358275]</t>
-  </si>
-  <si>
-    <t>[0.00079724 0.01478224]</t>
-  </si>
-  <si>
-    <t>[-0.01459907  0.01512918]</t>
-  </si>
-  <si>
-    <t>[11.21226266 30.33999763]</t>
-  </si>
-  <si>
-    <t>[0.51807412 0.57421775]</t>
-  </si>
-  <si>
-    <t>[0.00084844 0.01670163]</t>
-  </si>
-  <si>
-    <t>[0.00069269 0.01627437]</t>
-  </si>
-  <si>
-    <t>[-0.01303728  0.01400964]</t>
-  </si>
-  <si>
-    <t>[11.14672262 30.30241303]</t>
-  </si>
-  <si>
-    <t>[0.37533707 0.42619165]</t>
-  </si>
-  <si>
-    <t>[0.00137006 0.01616858]</t>
-  </si>
-  <si>
-    <t>[0.00069609 0.01622191]</t>
-  </si>
-  <si>
-    <t>[-0.01545505  0.00995168]</t>
-  </si>
-  <si>
-    <t>[11.0927547  30.07448937]</t>
-  </si>
-  <si>
-    <t>[0.48991632 0.51187796]</t>
-  </si>
-  <si>
-    <t>[0.00130077 0.01203623]</t>
-  </si>
-  <si>
-    <t>[0.00083351 0.0185426 ]</t>
-  </si>
-  <si>
-    <t>[-0.01531421  0.01214577]</t>
-  </si>
-  <si>
-    <t>[11.12177039 30.2832599 ]</t>
-  </si>
-  <si>
-    <t>[0.36880922 0.39869606]</t>
-  </si>
-  <si>
-    <t>[0.00123786 0.01376635]</t>
-  </si>
-  <si>
-    <t>[0.00069538 0.01776292]</t>
   </si>
 </sst>
 </file>
@@ -1193,6 +1027,12 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,12 +1055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD02C0B-DC35-41DB-A32D-2BF26C5D6FD8}">
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1567,45 +1401,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="136"/>
+      <c r="AB1" s="136"/>
+      <c r="AC1" s="136"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="136" t="s">
+      <c r="K2" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="140"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2548,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662F5ED6-D73E-4E0B-8723-E3673BF5FF82}">
   <dimension ref="B1:AF69"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2584,28 +2418,28 @@
       </c>
     </row>
     <row r="2" spans="2:32" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
       <c r="V2" s="25"/>
       <c r="W2" t="s">
         <v>97</v>
@@ -2728,36 +2562,16 @@
       <c r="V4" s="114">
         <v>5760002</v>
       </c>
-      <c r="W4" s="114">
-        <v>1.3827395919117501E-3</v>
-      </c>
-      <c r="X4" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y4" s="114">
-        <v>19.667390854652801</v>
-      </c>
-      <c r="Z4" s="114" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA4" s="114">
-        <v>0.53940181091050698</v>
-      </c>
-      <c r="AB4" s="114" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC4" s="114">
-        <v>5.0972580501897104E-3</v>
-      </c>
-      <c r="AD4" s="114" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" s="114">
-        <v>3.4974134121685198E-3</v>
-      </c>
-      <c r="AF4" s="114" t="s">
-        <v>113</v>
-      </c>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" s="33" t="s">
@@ -2823,36 +2637,16 @@
       <c r="V5" s="114">
         <v>5760003</v>
       </c>
-      <c r="W5" s="114">
-        <v>-1.40308698102886E-4</v>
-      </c>
-      <c r="X5" s="114" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y5" s="114">
-        <v>17.7245818951993</v>
-      </c>
-      <c r="Z5" s="114" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" s="114">
-        <v>0.54275491631373796</v>
-      </c>
-      <c r="AB5" s="114" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC5" s="114">
-        <v>3.4311572543499098E-3</v>
-      </c>
-      <c r="AD5" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE5" s="114">
-        <v>3.89493444715128E-3</v>
-      </c>
-      <c r="AF5" s="114" t="s">
-        <v>118</v>
-      </c>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="114"/>
+      <c r="AB5" s="114"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
+      <c r="AF5" s="114"/>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
@@ -3302,7 +3096,7 @@
       <c r="C13" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="140">
+      <c r="D13" s="132">
         <v>0.55200000000000005</v>
       </c>
       <c r="E13" s="43">
@@ -3317,13 +3111,13 @@
       <c r="H13" s="43">
         <v>2.9695</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="132">
         <v>6.915404E-3</v>
       </c>
       <c r="J13" s="44">
         <v>2.0599999999999999E-5</v>
       </c>
-      <c r="K13" s="140">
+      <c r="K13" s="132">
         <v>5.4905609999999997E-3</v>
       </c>
       <c r="L13" s="44">
@@ -3335,7 +3129,7 @@
       <c r="N13" s="43">
         <v>0</v>
       </c>
-      <c r="O13" s="140">
+      <c r="O13" s="132">
         <v>26.293776300000001</v>
       </c>
       <c r="P13" s="43">
@@ -3359,36 +3153,16 @@
       <c r="V13" s="114">
         <v>5756001</v>
       </c>
-      <c r="W13" s="114">
-        <v>-4.2820761592105E-4</v>
-      </c>
-      <c r="X13" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y13" s="114">
-        <v>17.755536061803799</v>
-      </c>
-      <c r="Z13" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA13" s="114">
-        <v>0.54844784692453696</v>
-      </c>
-      <c r="AB13" s="114" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="114">
-        <v>3.2212094502932801E-3</v>
-      </c>
-      <c r="AD13" s="114" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="114">
-        <v>3.6680374361212301E-3</v>
-      </c>
-      <c r="AF13" s="114" t="s">
-        <v>103</v>
-      </c>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="114"/>
+      <c r="AB13" s="114"/>
+      <c r="AC13" s="114"/>
+      <c r="AD13" s="114"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="114"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
@@ -3835,7 +3609,7 @@
       <c r="C20" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="133">
         <v>0.55432999999999999</v>
       </c>
       <c r="E20" s="49">
@@ -3850,13 +3624,13 @@
       <c r="H20" s="49">
         <v>99.588399999999993</v>
       </c>
-      <c r="I20" s="141">
+      <c r="I20" s="133">
         <v>1.1213768000000001E-2</v>
       </c>
       <c r="J20" s="131">
         <v>3.57E-5</v>
       </c>
-      <c r="K20" s="141">
+      <c r="K20" s="133">
         <v>1.0073520000000001E-2</v>
       </c>
       <c r="L20" s="131">
@@ -3868,7 +3642,7 @@
       <c r="N20" s="49">
         <v>0</v>
       </c>
-      <c r="O20" s="141">
+      <c r="O20" s="133">
         <v>14.54418738</v>
       </c>
       <c r="P20" s="49">
@@ -3965,36 +3739,16 @@
       <c r="V21" s="114">
         <v>5756002</v>
       </c>
-      <c r="W21" s="114">
-        <v>-1.42197045728292E-4</v>
-      </c>
-      <c r="X21" s="114" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21" s="114">
-        <v>18.5490775300918</v>
-      </c>
-      <c r="Z21" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" s="114">
-        <v>0.54469655820644503</v>
-      </c>
-      <c r="AB21" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC21" s="114">
-        <v>3.5503962621805099E-3</v>
-      </c>
-      <c r="AD21" s="114" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE21" s="114">
-        <v>3.5363134438537499E-3</v>
-      </c>
-      <c r="AF21" s="114" t="s">
-        <v>108</v>
-      </c>
+      <c r="W21" s="114"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="114"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="114"/>
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="46" t="s">
@@ -4501,36 +4255,16 @@
       <c r="V29" s="114">
         <v>5866001</v>
       </c>
-      <c r="W29" s="114">
-        <v>9.4932461316357599E-4</v>
-      </c>
-      <c r="X29" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y29" s="114">
-        <v>18.712607939785599</v>
-      </c>
-      <c r="Z29" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA29" s="114">
-        <v>0.40401999607493599</v>
-      </c>
-      <c r="AB29" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC29" s="114">
-        <v>3.7884990323922398E-3</v>
-      </c>
-      <c r="AD29" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE29" s="114">
-        <v>3.68377957988897E-3</v>
-      </c>
-      <c r="AF29" s="114" t="s">
-        <v>123</v>
-      </c>
+      <c r="W29" s="114"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="114"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" s="58" t="s">
@@ -4911,36 +4645,16 @@
       <c r="V35" s="114">
         <v>5866002</v>
       </c>
-      <c r="W35" s="114">
-        <v>5.6170888519120599E-4</v>
-      </c>
-      <c r="X35" s="114" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y35" s="114">
-        <v>18.520772115276301</v>
-      </c>
-      <c r="Z35" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA35" s="114">
-        <v>0.39444896684084901</v>
-      </c>
-      <c r="AB35" s="114" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC35" s="114">
-        <v>3.6337587716275799E-3</v>
-      </c>
-      <c r="AD35" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE35" s="114">
-        <v>3.7559696787731198E-3</v>
-      </c>
-      <c r="AF35" s="114" t="s">
-        <v>128</v>
-      </c>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="114"/>
+      <c r="AA35" s="114"/>
+      <c r="AB35" s="114"/>
+      <c r="AC35" s="114"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="114"/>
+      <c r="AF35" s="114"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" s="122" t="s">
@@ -5195,36 +4909,16 @@
       <c r="V39" s="114">
         <v>5894001</v>
       </c>
-      <c r="W39" s="114">
-        <v>-1.3102104412134399E-4</v>
-      </c>
-      <c r="X39" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y39" s="114">
-        <v>18.644800942103799</v>
-      </c>
-      <c r="Z39" s="114" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA39" s="114">
-        <v>0.41500855846347801</v>
-      </c>
-      <c r="AB39" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC39" s="114">
-        <v>3.8449249809513301E-3</v>
-      </c>
-      <c r="AD39" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE39" s="114">
-        <v>3.6918347345842998E-3</v>
-      </c>
-      <c r="AF39" s="114" t="s">
-        <v>133</v>
-      </c>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
+      <c r="Z39" s="114"/>
+      <c r="AA39" s="114"/>
+      <c r="AB39" s="114"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="114"/>
+      <c r="AF39" s="114"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" s="67" t="s">
@@ -5605,36 +5299,16 @@
       <c r="V45" s="114">
         <v>5895002</v>
       </c>
-      <c r="W45" s="114">
-        <v>4.9434528061632899E-4</v>
-      </c>
-      <c r="X45" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y45" s="114">
-        <v>18.811868003707801</v>
-      </c>
-      <c r="Z45" s="114" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA45" s="114">
-        <v>0.40103345955768999</v>
-      </c>
-      <c r="AB45" s="114" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC45" s="114">
-        <v>3.9181149402698198E-3</v>
-      </c>
-      <c r="AD45" s="114" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE45" s="114">
-        <v>3.65671480489883E-3</v>
-      </c>
-      <c r="AF45" s="114" t="s">
-        <v>143</v>
-      </c>
+      <c r="W45" s="114"/>
+      <c r="X45" s="114"/>
+      <c r="Y45" s="114"/>
+      <c r="Z45" s="114"/>
+      <c r="AA45" s="114"/>
+      <c r="AB45" s="114"/>
+      <c r="AC45" s="114"/>
+      <c r="AD45" s="114"/>
+      <c r="AE45" s="114"/>
+      <c r="AF45" s="114"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46" s="76" t="s">
@@ -5889,36 +5563,16 @@
       <c r="V49" s="114">
         <v>5895001</v>
       </c>
-      <c r="W49" s="114">
-        <v>4.2585984740736699E-4</v>
-      </c>
-      <c r="X49" s="114" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y49" s="114">
-        <v>18.519947198412599</v>
-      </c>
-      <c r="Z49" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA49" s="114">
-        <v>0.54436392603854</v>
-      </c>
-      <c r="AB49" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC49" s="114">
-        <v>3.6267776625591801E-3</v>
-      </c>
-      <c r="AD49" s="114" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE49" s="114">
-        <v>3.57974276042695E-3</v>
-      </c>
-      <c r="AF49" s="114" t="s">
-        <v>138</v>
-      </c>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
+      <c r="Y49" s="114"/>
+      <c r="Z49" s="114"/>
+      <c r="AA49" s="114"/>
+      <c r="AB49" s="114"/>
+      <c r="AC49" s="114"/>
+      <c r="AD49" s="114"/>
+      <c r="AE49" s="114"/>
+      <c r="AF49" s="114"/>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B50" s="76" t="s">
@@ -6173,36 +5827,16 @@
       <c r="V53" s="114">
         <v>5896001</v>
       </c>
-      <c r="W53" s="114">
-        <v>-2.59689197422315E-4</v>
-      </c>
-      <c r="X53" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y53" s="114">
-        <v>18.495346838162</v>
-      </c>
-      <c r="Z53" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA53" s="114">
-        <v>0.501770894829069</v>
-      </c>
-      <c r="AB53" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC53" s="114">
-        <v>3.5430243310459802E-3</v>
-      </c>
-      <c r="AD53" s="114" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE53" s="114">
-        <v>4.3525136408884202E-3</v>
-      </c>
-      <c r="AF53" s="114" t="s">
-        <v>148</v>
-      </c>
+      <c r="W53" s="114"/>
+      <c r="X53" s="114"/>
+      <c r="Y53" s="114"/>
+      <c r="Z53" s="114"/>
+      <c r="AA53" s="114"/>
+      <c r="AB53" s="114"/>
+      <c r="AC53" s="114"/>
+      <c r="AD53" s="114"/>
+      <c r="AE53" s="114"/>
+      <c r="AF53" s="114"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B54" s="90" t="s">
@@ -6768,36 +6402,16 @@
       <c r="V62" s="114">
         <v>5896002</v>
       </c>
-      <c r="W62" s="130">
-        <v>-1.5372658982021299E-5</v>
-      </c>
-      <c r="X62" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y62" s="114">
-        <v>18.170127988827499</v>
-      </c>
-      <c r="Z62" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA62" s="114">
-        <v>0.38411982924412402</v>
-      </c>
-      <c r="AB62" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC62" s="114">
-        <v>3.57348582286637E-3</v>
-      </c>
-      <c r="AD62" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE62" s="114">
-        <v>3.8803796852310301E-3</v>
-      </c>
-      <c r="AF62" s="114" t="s">
-        <v>153</v>
-      </c>
+      <c r="W62" s="130"/>
+      <c r="X62" s="114"/>
+      <c r="Y62" s="114"/>
+      <c r="Z62" s="114"/>
+      <c r="AA62" s="114"/>
+      <c r="AB62" s="114"/>
+      <c r="AC62" s="114"/>
+      <c r="AD62" s="114"/>
+      <c r="AE62" s="114"/>
+      <c r="AF62" s="114"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B63" s="90" t="s">
